--- a/Industry/201612-201908/HKD/MILLION/Analysis_93_13.1.2 -  Metal Cookware & Kitchenware_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_93_13.1.2 -  Metal Cookware & Kitchenware_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1920" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -22947,6 +22948,607 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1628.597</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1444.083</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-11.33</v>
+      </c>
+      <c r="E2" t="n">
+        <v>816.6130000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1194.715</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-17.268</v>
+      </c>
+      <c r="H2" t="n">
+        <v>712.553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-12.743</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="n">
+        <v>856.226</v>
+      </c>
+      <c r="C3" t="n">
+        <v>655.486</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-23.445</v>
+      </c>
+      <c r="E3" t="n">
+        <v>406.666</v>
+      </c>
+      <c r="F3" t="n">
+        <v>614.539</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-6.247</v>
+      </c>
+      <c r="H3" t="n">
+        <v>402.867</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.9340000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>52.574</v>
+      </c>
+      <c r="K3" t="n">
+        <v>45.391</v>
+      </c>
+      <c r="L3" t="n">
+        <v>49.799</v>
+      </c>
+      <c r="M3" t="n">
+        <v>51.438</v>
+      </c>
+      <c r="N3" t="n">
+        <v>56.539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" t="n">
+        <v>285.353</v>
+      </c>
+      <c r="C4" t="n">
+        <v>282.159</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.119</v>
+      </c>
+      <c r="E4" t="n">
+        <v>121.923</v>
+      </c>
+      <c r="F4" t="n">
+        <v>175.452</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-37.818</v>
+      </c>
+      <c r="H4" t="n">
+        <v>101.879</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-16.44</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17.521</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19.539</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14.686</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14.298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="n">
+        <v>120.82</v>
+      </c>
+      <c r="C5" t="n">
+        <v>129.441</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.135</v>
+      </c>
+      <c r="E5" t="n">
+        <v>85.136</v>
+      </c>
+      <c r="F5" t="n">
+        <v>119.092</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-7.995</v>
+      </c>
+      <c r="H5" t="n">
+        <v>65.059</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-23.582</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.419</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.964</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10.426</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.968</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="n">
+        <v>180.589</v>
+      </c>
+      <c r="C6" t="n">
+        <v>188.872</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.587</v>
+      </c>
+      <c r="E6" t="n">
+        <v>85.877</v>
+      </c>
+      <c r="F6" t="n">
+        <v>125.038</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-33.797</v>
+      </c>
+      <c r="H6" t="n">
+        <v>61.415</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-28.485</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.089</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.079</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10.516</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10.466</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="n">
+        <v>59.667</v>
+      </c>
+      <c r="C7" t="n">
+        <v>66.517</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.481</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.142</v>
+      </c>
+      <c r="F7" t="n">
+        <v>66.339</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="H7" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-37.178</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.664</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.606</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.553</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38.653</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34.399</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-11.005</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18.527</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-24.196</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.677</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.993</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.879</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" t="n">
+        <v>45.361</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35.104</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-22.613</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16.991</v>
+      </c>
+      <c r="F9" t="n">
+        <v>22.456</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-36.028</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.658</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-13.73</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.785</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.431</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.081</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30.905</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36.121</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.879</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.157</v>
+      </c>
+      <c r="F10" t="n">
+        <v>29.489</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-18.362</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.657</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-37.208</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.501</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.468</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.457</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.619</v>
+      </c>
+      <c r="D11" t="n">
+        <v>70.962</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.281</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.834</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-36.553</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.271</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-30.801</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.541</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-44.187</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-27.24</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-20.844</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.018</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-18.925</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.636</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.079</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="9"/>
+    <col bestFit="1" customWidth="1" max="5" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="7" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>206</v>
       </c>
       <c r="K1" s="2" t="s">
